--- a/data/tests/cluster_38.xlsx
+++ b/data/tests/cluster_38.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,333 @@
         <v>38</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Rv3723</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>lucA Rv3723</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>FUNCTION: Required for the import of both fatty acids and cholesterol during growth in macrophages and in axenic culture. Facilitates the uptake of these lipids by stabilizing protein subunits of the Mce1 and Mce4 multi-subunit transporters, which transport fatty acids and cholesterol, respectively. Required for full virulence in vivo. {ECO:0000269|PubMed:28708968}.</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Rv0174</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>mce1F Rv0174</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Rv0175</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Rv0175</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Rv0170</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>mce1B Rv0170</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Rv2536</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Rv2536</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Rv0172</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>mce1D Rv0172</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Rv0178</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Rv0178</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Rv1016c</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>lpqT Rv1016c MTCY10G2.33</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Rv1405c</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Rv1405c MTCY21B4.22c</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Rv0167</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>yrbE1A Rv0167</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Rv0513</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Rv0513</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Rv0177</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Rv0177</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rv0168</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>yrbE1B Rv0168</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Rv0200</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Rv0200</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Rv0173</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>lprK Rv0173</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Rv0171</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>mce1C Rv0171</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Rv0176</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Rv0176</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
